--- a/Excel Files IPEDS/Trimmed/c2006_trimmed_file.xlsx
+++ b/Excel Files IPEDS/Trimmed/c2006_trimmed_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100706</v>
+        <v>100663</v>
       </c>
       <c r="B4" t="n">
         <v>40.0801</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>2006</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100751</v>
+        <v>100706</v>
       </c>
       <c r="B5" t="n">
         <v>40.0801</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -530,16 +530,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100858</v>
+        <v>100706</v>
       </c>
       <c r="B6" t="n">
         <v>40.0801</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>2006</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102614</v>
+        <v>100751</v>
       </c>
       <c r="B7" t="n">
         <v>40.0801</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104151</v>
+        <v>100751</v>
       </c>
       <c r="B8" t="n">
         <v>40.0801</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>2006</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104179</v>
+        <v>100858</v>
       </c>
       <c r="B9" t="n">
         <v>40.0801</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -598,16 +598,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105330</v>
+        <v>100858</v>
       </c>
       <c r="B10" t="n">
         <v>40.0801</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>2006</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106397</v>
+        <v>102614</v>
       </c>
       <c r="B11" t="n">
         <v>40.0801</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -632,16 +632,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110404</v>
+        <v>102614</v>
       </c>
       <c r="B12" t="n">
         <v>40.0801</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>2006</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110422</v>
+        <v>104151</v>
       </c>
       <c r="B13" t="n">
         <v>40.0801</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -666,16 +666,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110422</v>
+        <v>104151</v>
       </c>
       <c r="B14" t="n">
         <v>40.0801</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>2006</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110556</v>
+        <v>104179</v>
       </c>
       <c r="B15" t="n">
         <v>40.0801</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110565</v>
+        <v>104179</v>
       </c>
       <c r="B16" t="n">
         <v>40.0801</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>2006</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110583</v>
+        <v>105330</v>
       </c>
       <c r="B17" t="n">
         <v>40.0801</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110592</v>
+        <v>106397</v>
       </c>
       <c r="B18" t="n">
         <v>40.0801</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110608</v>
+        <v>106397</v>
       </c>
       <c r="B19" t="n">
         <v>40.0801</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>2006</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110635</v>
+        <v>110404</v>
       </c>
       <c r="B20" t="n">
         <v>40.0801</v>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110644</v>
+        <v>110404</v>
       </c>
       <c r="B21" t="n">
         <v>40.0801</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>2006</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110653</v>
+        <v>110422</v>
       </c>
       <c r="B22" t="n">
         <v>40.0801</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>7</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110662</v>
+        <v>110422</v>
       </c>
       <c r="B23" t="n">
         <v>40.0801</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>7</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110671</v>
+        <v>110556</v>
       </c>
       <c r="B24" t="n">
         <v>40.0801</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>7</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110680</v>
+        <v>110565</v>
       </c>
       <c r="B25" t="n">
         <v>40.0801</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110705</v>
+        <v>110583</v>
       </c>
       <c r="B26" t="n">
         <v>40.0801</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110714</v>
+        <v>110592</v>
       </c>
       <c r="B27" t="n">
         <v>40.0801</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>119678</v>
+        <v>110608</v>
       </c>
       <c r="B28" t="n">
         <v>40.0801</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>122409</v>
+        <v>110635</v>
       </c>
       <c r="B29" t="n">
         <v>40.0801</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>7</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>122597</v>
+        <v>110635</v>
       </c>
       <c r="B30" t="n">
         <v>40.0801</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
         <v>2006</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>122755</v>
+        <v>110644</v>
       </c>
       <c r="B31" t="n">
         <v>40.0801</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
         <v>7</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>123961</v>
+        <v>110644</v>
       </c>
       <c r="B32" t="n">
         <v>40.0801</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
         <v>2006</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>126614</v>
+        <v>110653</v>
       </c>
       <c r="B33" t="n">
         <v>40.0801</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
         <v>7</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>126775</v>
+        <v>110653</v>
       </c>
       <c r="B34" t="n">
         <v>40.0801</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
         <v>2006</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126818</v>
+        <v>110662</v>
       </c>
       <c r="B35" t="n">
         <v>40.0801</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>127060</v>
+        <v>110662</v>
       </c>
       <c r="B36" t="n">
         <v>40.0801</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
         <v>2006</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>129020</v>
+        <v>110671</v>
       </c>
       <c r="B37" t="n">
         <v>40.0801</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>7</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130697</v>
+        <v>110671</v>
       </c>
       <c r="B38" t="n">
         <v>40.0801</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
         <v>2006</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130794</v>
+        <v>110680</v>
       </c>
       <c r="B39" t="n">
         <v>40.0801</v>
       </c>
       <c r="C39" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
         <v>7</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130934</v>
+        <v>110680</v>
       </c>
       <c r="B40" t="n">
         <v>40.0801</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>2006</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130943</v>
+        <v>110705</v>
       </c>
       <c r="B41" t="n">
         <v>40.0801</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>7</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131283</v>
+        <v>110705</v>
       </c>
       <c r="B42" t="n">
         <v>40.0801</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
         <v>2006</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131469</v>
+        <v>110714</v>
       </c>
       <c r="B43" t="n">
         <v>40.0801</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131496</v>
+        <v>110714</v>
       </c>
       <c r="B44" t="n">
         <v>40.0801</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
         <v>2006</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131520</v>
+        <v>119678</v>
       </c>
       <c r="B45" t="n">
         <v>40.0801</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>132903</v>
+        <v>122409</v>
       </c>
       <c r="B46" t="n">
         <v>40.0801</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>133650</v>
+        <v>122597</v>
       </c>
       <c r="B47" t="n">
         <v>40.0801</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>133669</v>
+        <v>122755</v>
       </c>
       <c r="B48" t="n">
         <v>40.0801</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>133881</v>
+        <v>123961</v>
       </c>
       <c r="B49" t="n">
         <v>40.0801</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>134097</v>
+        <v>123961</v>
       </c>
       <c r="B50" t="n">
         <v>40.0801</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>2006</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>134130</v>
+        <v>126614</v>
       </c>
       <c r="B51" t="n">
         <v>40.0801</v>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>135726</v>
+        <v>126614</v>
       </c>
       <c r="B52" t="n">
         <v>40.0801</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>2006</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>137351</v>
+        <v>126775</v>
       </c>
       <c r="B53" t="n">
         <v>40.0801</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>138947</v>
+        <v>126818</v>
       </c>
       <c r="B54" t="n">
         <v>40.0801</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>139658</v>
+        <v>126818</v>
       </c>
       <c r="B55" t="n">
         <v>40.0801</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>2006</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>139755</v>
+        <v>127060</v>
       </c>
       <c r="B56" t="n">
         <v>40.0801</v>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>7</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>139940</v>
+        <v>127060</v>
       </c>
       <c r="B57" t="n">
         <v>40.0801</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
         <v>2006</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>139959</v>
+        <v>129020</v>
       </c>
       <c r="B58" t="n">
         <v>40.0801</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1431,16 +1431,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>141574</v>
+        <v>129020</v>
       </c>
       <c r="B59" t="n">
         <v>40.0801</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
         <v>2006</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>142276</v>
+        <v>130697</v>
       </c>
       <c r="B60" t="n">
         <v>40.0801</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>7</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>142285</v>
+        <v>130697</v>
       </c>
       <c r="B61" t="n">
         <v>40.0801</v>
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
         <v>2006</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>144050</v>
+        <v>130794</v>
       </c>
       <c r="B62" t="n">
         <v>40.0801</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>7</v>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>144740</v>
+        <v>130794</v>
       </c>
       <c r="B63" t="n">
         <v>40.0801</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
         <v>2006</v>
@@ -1516,13 +1516,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>144740</v>
+        <v>130934</v>
       </c>
       <c r="B64" t="n">
         <v>40.0801</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>7</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>145600</v>
+        <v>130943</v>
       </c>
       <c r="B65" t="n">
         <v>40.0801</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>7</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>145637</v>
+        <v>130943</v>
       </c>
       <c r="B66" t="n">
         <v>40.0801</v>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
         <v>2006</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>145725</v>
+        <v>131283</v>
       </c>
       <c r="B67" t="n">
         <v>40.0801</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>7</v>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>147703</v>
+        <v>131283</v>
       </c>
       <c r="B68" t="n">
         <v>40.0801</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
         <v>2006</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>149222</v>
+        <v>131469</v>
       </c>
       <c r="B69" t="n">
         <v>40.0801</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>7</v>
@@ -1618,16 +1618,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>149222</v>
+        <v>131469</v>
       </c>
       <c r="B70" t="n">
         <v>40.0801</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
         <v>2006</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>149231</v>
+        <v>131496</v>
       </c>
       <c r="B71" t="n">
         <v>40.0801</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>7</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>149772</v>
+        <v>131520</v>
       </c>
       <c r="B72" t="n">
         <v>40.0801</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>150136</v>
+        <v>131520</v>
       </c>
       <c r="B73" t="n">
         <v>40.0801</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
         <v>2006</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>151111</v>
+        <v>132903</v>
       </c>
       <c r="B74" t="n">
         <v>40.0801</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>151351</v>
+        <v>132903</v>
       </c>
       <c r="B75" t="n">
         <v>40.0801</v>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
         <v>2006</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>152080</v>
+        <v>133650</v>
       </c>
       <c r="B76" t="n">
         <v>40.0801</v>
       </c>
       <c r="C76" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>7</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>153603</v>
+        <v>133669</v>
       </c>
       <c r="B77" t="n">
         <v>40.0801</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>7</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>153603</v>
+        <v>133669</v>
       </c>
       <c r="B78" t="n">
         <v>40.0801</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
         <v>2006</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>153658</v>
+        <v>133881</v>
       </c>
       <c r="B79" t="n">
         <v>40.0801</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>7</v>
@@ -1788,16 +1788,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>155317</v>
+        <v>133951</v>
       </c>
       <c r="B80" t="n">
         <v>40.0801</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
         <v>2006</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>155399</v>
+        <v>134097</v>
       </c>
       <c r="B81" t="n">
         <v>40.0801</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
         <v>7</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>155681</v>
+        <v>134097</v>
       </c>
       <c r="B82" t="n">
         <v>40.0801</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
         <v>2006</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>156125</v>
+        <v>134130</v>
       </c>
       <c r="B83" t="n">
         <v>40.0801</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D83" t="n">
         <v>7</v>
@@ -1856,16 +1856,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>157085</v>
+        <v>134130</v>
       </c>
       <c r="B84" t="n">
         <v>40.0801</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
         <v>2006</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>157289</v>
+        <v>135726</v>
       </c>
       <c r="B85" t="n">
         <v>40.0801</v>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>159391</v>
+        <v>135726</v>
       </c>
       <c r="B86" t="n">
         <v>40.0801</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
         <v>2006</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>159647</v>
+        <v>137351</v>
       </c>
       <c r="B87" t="n">
         <v>40.0801</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>159939</v>
+        <v>137351</v>
       </c>
       <c r="B88" t="n">
         <v>40.0801</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
         <v>2006</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>160621</v>
+        <v>138947</v>
       </c>
       <c r="B89" t="n">
         <v>40.0801</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>160658</v>
+        <v>139658</v>
       </c>
       <c r="B90" t="n">
         <v>40.0801</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>160755</v>
+        <v>139755</v>
       </c>
       <c r="B91" t="n">
         <v>40.0801</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
         <v>7</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>161253</v>
+        <v>139755</v>
       </c>
       <c r="B92" t="n">
         <v>40.0801</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E92" t="n">
         <v>2006</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>162928</v>
+        <v>139940</v>
       </c>
       <c r="B93" t="n">
         <v>40.0801</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>163268</v>
+        <v>139940</v>
       </c>
       <c r="B94" t="n">
         <v>40.0801</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
         <v>2006</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>163286</v>
+        <v>139959</v>
       </c>
       <c r="B95" t="n">
         <v>40.0801</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>164924</v>
+        <v>139959</v>
       </c>
       <c r="B96" t="n">
         <v>40.0801</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
         <v>2006</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>164988</v>
+        <v>141574</v>
       </c>
       <c r="B97" t="n">
         <v>40.0801</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
@@ -2094,16 +2094,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>165015</v>
+        <v>141574</v>
       </c>
       <c r="B98" t="n">
         <v>40.0801</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
         <v>2006</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>165334</v>
+        <v>142276</v>
       </c>
       <c r="B99" t="n">
         <v>40.0801</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166027</v>
+        <v>142285</v>
       </c>
       <c r="B100" t="n">
         <v>40.0801</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>7</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>166513</v>
+        <v>142285</v>
       </c>
       <c r="B101" t="n">
         <v>40.0801</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
         <v>2006</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>166629</v>
+        <v>144050</v>
       </c>
       <c r="B102" t="n">
         <v>40.0801</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
         <v>7</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>166683</v>
+        <v>144050</v>
       </c>
       <c r="B103" t="n">
         <v>40.0801</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103" t="n">
         <v>2006</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>167358</v>
+        <v>144740</v>
       </c>
       <c r="B104" t="n">
         <v>40.0801</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
         <v>7</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>167987</v>
+        <v>144740</v>
       </c>
       <c r="B105" t="n">
         <v>40.0801</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>7</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>168148</v>
+        <v>145600</v>
       </c>
       <c r="B106" t="n">
         <v>40.0801</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
         <v>7</v>
@@ -2247,16 +2247,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>168421</v>
+        <v>145600</v>
       </c>
       <c r="B107" t="n">
         <v>40.0801</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>2006</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>169248</v>
+        <v>145637</v>
       </c>
       <c r="B108" t="n">
         <v>40.0801</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>169798</v>
+        <v>145637</v>
       </c>
       <c r="B109" t="n">
         <v>40.0801</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
         <v>2006</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>170976</v>
+        <v>145725</v>
       </c>
       <c r="B110" t="n">
         <v>40.0801</v>
       </c>
       <c r="C110" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
         <v>7</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>171100</v>
+        <v>147703</v>
       </c>
       <c r="B111" t="n">
         <v>40.0801</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
         <v>7</v>
@@ -2332,16 +2332,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>171128</v>
+        <v>147703</v>
       </c>
       <c r="B112" t="n">
         <v>40.0801</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E112" t="n">
         <v>2006</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>171571</v>
+        <v>149222</v>
       </c>
       <c r="B113" t="n">
         <v>40.0801</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>172644</v>
+        <v>149222</v>
       </c>
       <c r="B114" t="n">
         <v>40.0801</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
         <v>2006</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>172699</v>
+        <v>149222</v>
       </c>
       <c r="B115" t="n">
         <v>40.0801</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>7</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>173920</v>
+        <v>149222</v>
       </c>
       <c r="B116" t="n">
         <v>40.0801</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E116" t="n">
         <v>2006</v>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>174066</v>
+        <v>149231</v>
       </c>
       <c r="B117" t="n">
         <v>40.0801</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>7</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>174233</v>
+        <v>149772</v>
       </c>
       <c r="B118" t="n">
         <v>40.0801</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>176017</v>
+        <v>150136</v>
       </c>
       <c r="B119" t="n">
         <v>40.0801</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>176080</v>
+        <v>151111</v>
       </c>
       <c r="B120" t="n">
         <v>40.0801</v>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>7</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>176372</v>
+        <v>151351</v>
       </c>
       <c r="B121" t="n">
         <v>40.0801</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
         <v>7</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>178396</v>
+        <v>151351</v>
       </c>
       <c r="B122" t="n">
         <v>40.0801</v>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
         <v>2006</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>178402</v>
+        <v>152080</v>
       </c>
       <c r="B123" t="n">
         <v>40.0801</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D123" t="n">
         <v>7</v>
@@ -2536,16 +2536,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>178411</v>
+        <v>152080</v>
       </c>
       <c r="B124" t="n">
         <v>40.0801</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
         <v>2006</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>178420</v>
+        <v>153603</v>
       </c>
       <c r="B125" t="n">
         <v>40.0801</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>7</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>179867</v>
+        <v>153603</v>
       </c>
       <c r="B126" t="n">
         <v>40.0801</v>
       </c>
       <c r="C126" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E126" t="n">
         <v>2006</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>180461</v>
+        <v>153603</v>
       </c>
       <c r="B127" t="n">
         <v>40.0801</v>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>7</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>180489</v>
+        <v>153603</v>
       </c>
       <c r="B128" t="n">
         <v>40.0801</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
         <v>2006</v>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>181002</v>
+        <v>153658</v>
       </c>
       <c r="B129" t="n">
         <v>40.0801</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="n">
         <v>7</v>
@@ -2638,16 +2638,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>181464</v>
+        <v>153658</v>
       </c>
       <c r="B130" t="n">
         <v>40.0801</v>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E130" t="n">
         <v>2006</v>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>182290</v>
+        <v>155317</v>
       </c>
       <c r="B131" t="n">
         <v>40.0801</v>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
         <v>7</v>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>182670</v>
+        <v>155317</v>
       </c>
       <c r="B132" t="n">
         <v>40.0801</v>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132" t="n">
         <v>2006</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>183044</v>
+        <v>155399</v>
       </c>
       <c r="B133" t="n">
         <v>40.0801</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
         <v>7</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>186131</v>
+        <v>155399</v>
       </c>
       <c r="B134" t="n">
         <v>40.0801</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E134" t="n">
         <v>2006</v>
@@ -2723,13 +2723,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>186867</v>
+        <v>155681</v>
       </c>
       <c r="B135" t="n">
         <v>40.0801</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
         <v>7</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>187967</v>
+        <v>156125</v>
       </c>
       <c r="B136" t="n">
         <v>40.0801</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
         <v>7</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>187985</v>
+        <v>157085</v>
       </c>
       <c r="B137" t="n">
         <v>40.0801</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D137" t="n">
         <v>7</v>
@@ -2774,16 +2774,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>188030</v>
+        <v>157085</v>
       </c>
       <c r="B138" t="n">
         <v>40.0801</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E138" t="n">
         <v>2006</v>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>190044</v>
+        <v>157289</v>
       </c>
       <c r="B139" t="n">
         <v>40.0801</v>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
         <v>7</v>
@@ -2808,13 +2808,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>190150</v>
+        <v>159391</v>
       </c>
       <c r="B140" t="n">
         <v>40.0801</v>
       </c>
       <c r="C140" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>7</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>190415</v>
+        <v>159391</v>
       </c>
       <c r="B141" t="n">
         <v>40.0801</v>
       </c>
       <c r="C141" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E141" t="n">
         <v>2006</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>190549</v>
+        <v>159647</v>
       </c>
       <c r="B142" t="n">
         <v>40.0801</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>190567</v>
+        <v>159939</v>
       </c>
       <c r="B143" t="n">
         <v>40.0801</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>190594</v>
+        <v>160621</v>
       </c>
       <c r="B144" t="n">
         <v>40.0801</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
         <v>7</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>193900</v>
+        <v>160658</v>
       </c>
       <c r="B145" t="n">
         <v>40.0801</v>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>7</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>194824</v>
+        <v>160755</v>
       </c>
       <c r="B146" t="n">
         <v>40.0801</v>
       </c>
       <c r="C146" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
         <v>7</v>
@@ -2927,16 +2927,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>195030</v>
+        <v>160755</v>
       </c>
       <c r="B147" t="n">
         <v>40.0801</v>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E147" t="n">
         <v>2006</v>
@@ -2944,13 +2944,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>196060</v>
+        <v>161253</v>
       </c>
       <c r="B148" t="n">
         <v>40.0801</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
         <v>7</v>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>196079</v>
+        <v>161253</v>
       </c>
       <c r="B149" t="n">
         <v>40.0801</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
         <v>2006</v>
@@ -2978,13 +2978,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>196088</v>
+        <v>162928</v>
       </c>
       <c r="B150" t="n">
         <v>40.0801</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D150" t="n">
         <v>7</v>
@@ -2995,16 +2995,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>196097</v>
+        <v>162928</v>
       </c>
       <c r="B151" t="n">
         <v>40.0801</v>
       </c>
       <c r="C151" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E151" t="n">
         <v>2006</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>196413</v>
+        <v>163268</v>
       </c>
       <c r="B152" t="n">
         <v>40.0801</v>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
         <v>7</v>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>197869</v>
+        <v>163268</v>
       </c>
       <c r="B153" t="n">
         <v>40.0801</v>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D153" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
         <v>2006</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>198419</v>
+        <v>163286</v>
       </c>
       <c r="B154" t="n">
         <v>40.0801</v>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D154" t="n">
         <v>7</v>
@@ -3063,16 +3063,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>198464</v>
+        <v>163286</v>
       </c>
       <c r="B155" t="n">
         <v>40.0801</v>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D155" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E155" t="n">
         <v>2006</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>199102</v>
+        <v>164924</v>
       </c>
       <c r="B156" t="n">
         <v>40.0801</v>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>7</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>199120</v>
+        <v>164924</v>
       </c>
       <c r="B157" t="n">
         <v>40.0801</v>
       </c>
       <c r="C157" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E157" t="n">
         <v>2006</v>
@@ -3114,13 +3114,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>199139</v>
+        <v>164988</v>
       </c>
       <c r="B158" t="n">
         <v>40.0801</v>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
@@ -3131,16 +3131,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>199193</v>
+        <v>164988</v>
       </c>
       <c r="B159" t="n">
         <v>40.0801</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E159" t="n">
         <v>2006</v>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>199847</v>
+        <v>165015</v>
       </c>
       <c r="B160" t="n">
         <v>40.0801</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
         <v>7</v>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>200280</v>
+        <v>165015</v>
       </c>
       <c r="B161" t="n">
         <v>40.0801</v>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E161" t="n">
         <v>2006</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>200332</v>
+        <v>165334</v>
       </c>
       <c r="B162" t="n">
         <v>40.0801</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>7</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>200800</v>
+        <v>165334</v>
       </c>
       <c r="B163" t="n">
         <v>40.0801</v>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
         <v>2006</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>201441</v>
+        <v>166027</v>
       </c>
       <c r="B164" t="n">
         <v>40.0801</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D164" t="n">
         <v>7</v>
@@ -3233,16 +3233,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>201645</v>
+        <v>166027</v>
       </c>
       <c r="B165" t="n">
         <v>40.0801</v>
       </c>
       <c r="C165" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E165" t="n">
         <v>2006</v>
@@ -3250,13 +3250,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>201885</v>
+        <v>166513</v>
       </c>
       <c r="B166" t="n">
         <v>40.0801</v>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
         <v>7</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>202134</v>
+        <v>166513</v>
       </c>
       <c r="B167" t="n">
         <v>40.0801</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E167" t="n">
         <v>2006</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>203368</v>
+        <v>166629</v>
       </c>
       <c r="B168" t="n">
         <v>40.0801</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
         <v>7</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>203517</v>
+        <v>166629</v>
       </c>
       <c r="B169" t="n">
         <v>40.0801</v>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E169" t="n">
         <v>2006</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>204024</v>
+        <v>166683</v>
       </c>
       <c r="B170" t="n">
         <v>40.0801</v>
       </c>
       <c r="C170" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D170" t="n">
         <v>7</v>
@@ -3335,16 +3335,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>204796</v>
+        <v>166683</v>
       </c>
       <c r="B171" t="n">
         <v>40.0801</v>
       </c>
       <c r="C171" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D171" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
         <v>2006</v>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>204857</v>
+        <v>167358</v>
       </c>
       <c r="B172" t="n">
         <v>40.0801</v>
       </c>
       <c r="C172" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
         <v>7</v>
@@ -3369,16 +3369,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>206084</v>
+        <v>167358</v>
       </c>
       <c r="B173" t="n">
         <v>40.0801</v>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E173" t="n">
         <v>2006</v>
@@ -3386,13 +3386,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>206604</v>
+        <v>167987</v>
       </c>
       <c r="B174" t="n">
         <v>40.0801</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
         <v>7</v>
@@ -3403,13 +3403,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>206941</v>
+        <v>168148</v>
       </c>
       <c r="B175" t="n">
         <v>40.0801</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D175" t="n">
         <v>7</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>206941</v>
+        <v>168148</v>
       </c>
       <c r="B176" t="n">
         <v>40.0801</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E176" t="n">
         <v>2006</v>
@@ -3437,13 +3437,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>207388</v>
+        <v>168421</v>
       </c>
       <c r="B177" t="n">
         <v>40.0801</v>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>7</v>
@@ -3454,16 +3454,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>207388</v>
+        <v>168421</v>
       </c>
       <c r="B178" t="n">
         <v>40.0801</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
         <v>2006</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>207500</v>
+        <v>169248</v>
       </c>
       <c r="B179" t="n">
         <v>40.0801</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
         <v>7</v>
@@ -3488,13 +3488,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207500</v>
+        <v>169798</v>
       </c>
       <c r="B180" t="n">
         <v>40.0801</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
         <v>7</v>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>209542</v>
+        <v>170976</v>
       </c>
       <c r="B181" t="n">
         <v>40.0801</v>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D181" t="n">
         <v>7</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209551</v>
+        <v>170976</v>
       </c>
       <c r="B182" t="n">
         <v>40.0801</v>
       </c>
       <c r="C182" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D182" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
         <v>2006</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>209807</v>
+        <v>171100</v>
       </c>
       <c r="B183" t="n">
         <v>40.0801</v>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D183" t="n">
         <v>7</v>
@@ -3556,16 +3556,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>211440</v>
+        <v>171100</v>
       </c>
       <c r="B184" t="n">
         <v>40.0801</v>
       </c>
       <c r="C184" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
         <v>2006</v>
@@ -3573,13 +3573,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213020</v>
+        <v>171128</v>
       </c>
       <c r="B185" t="n">
         <v>40.0801</v>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
         <v>7</v>
@@ -3590,16 +3590,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>213543</v>
+        <v>171128</v>
       </c>
       <c r="B186" t="n">
         <v>40.0801</v>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E186" t="n">
         <v>2006</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>214777</v>
+        <v>171571</v>
       </c>
       <c r="B187" t="n">
         <v>40.0801</v>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>7</v>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>215062</v>
+        <v>172644</v>
       </c>
       <c r="B188" t="n">
         <v>40.0801</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
         <v>7</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>215293</v>
+        <v>172644</v>
       </c>
       <c r="B189" t="n">
         <v>40.0801</v>
       </c>
       <c r="C189" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E189" t="n">
         <v>2006</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>216038</v>
+        <v>172699</v>
       </c>
       <c r="B190" t="n">
         <v>40.0801</v>
       </c>
       <c r="C190" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
         <v>7</v>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>216038</v>
+        <v>172699</v>
       </c>
       <c r="B191" t="n">
         <v>40.0801</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E191" t="n">
         <v>2006</v>
@@ -3692,13 +3692,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>216339</v>
+        <v>173920</v>
       </c>
       <c r="B192" t="n">
         <v>40.0801</v>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D192" t="n">
         <v>7</v>
@@ -3709,13 +3709,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>217156</v>
+        <v>174066</v>
       </c>
       <c r="B193" t="n">
         <v>40.0801</v>
       </c>
       <c r="C193" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D193" t="n">
         <v>7</v>
@@ -3726,16 +3726,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>217484</v>
+        <v>174066</v>
       </c>
       <c r="B194" t="n">
         <v>40.0801</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D194" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E194" t="n">
         <v>2006</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>217882</v>
+        <v>174233</v>
       </c>
       <c r="B195" t="n">
         <v>40.0801</v>
       </c>
       <c r="C195" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>7</v>
@@ -3760,13 +3760,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>218663</v>
+        <v>176017</v>
       </c>
       <c r="B196" t="n">
         <v>40.0801</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>7</v>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>220181</v>
+        <v>176017</v>
       </c>
       <c r="B197" t="n">
         <v>40.0801</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E197" t="n">
         <v>2006</v>
@@ -3794,13 +3794,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>220862</v>
+        <v>176080</v>
       </c>
       <c r="B198" t="n">
         <v>40.0801</v>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
         <v>7</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>221759</v>
+        <v>176372</v>
       </c>
       <c r="B199" t="n">
         <v>40.0801</v>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>7</v>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>221999</v>
+        <v>178396</v>
       </c>
       <c r="B200" t="n">
         <v>40.0801</v>
       </c>
       <c r="C200" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D200" t="n">
         <v>7</v>
@@ -3845,16 +3845,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>221999</v>
+        <v>178396</v>
       </c>
       <c r="B201" t="n">
         <v>40.0801</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E201" t="n">
         <v>2006</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>223232</v>
+        <v>178402</v>
       </c>
       <c r="B202" t="n">
         <v>40.0801</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>224554</v>
+        <v>178411</v>
       </c>
       <c r="B203" t="n">
         <v>40.0801</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D203" t="n">
         <v>7</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>225414</v>
+        <v>178411</v>
       </c>
       <c r="B204" t="n">
         <v>40.0801</v>
       </c>
       <c r="C204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E204" t="n">
         <v>2006</v>
@@ -3913,13 +3913,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>225511</v>
+        <v>178420</v>
       </c>
       <c r="B205" t="n">
         <v>40.0801</v>
       </c>
       <c r="C205" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D205" t="n">
         <v>7</v>
@@ -3930,16 +3930,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>227216</v>
+        <v>178420</v>
       </c>
       <c r="B206" t="n">
         <v>40.0801</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E206" t="n">
         <v>2006</v>
@@ -3947,13 +3947,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>227377</v>
+        <v>179867</v>
       </c>
       <c r="B207" t="n">
         <v>40.0801</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D207" t="n">
         <v>7</v>
@@ -3964,16 +3964,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>227757</v>
+        <v>179867</v>
       </c>
       <c r="B208" t="n">
         <v>40.0801</v>
       </c>
       <c r="C208" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D208" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E208" t="n">
         <v>2006</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>227881</v>
+        <v>180461</v>
       </c>
       <c r="B209" t="n">
         <v>40.0801</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D209" t="n">
         <v>7</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>228246</v>
+        <v>180461</v>
       </c>
       <c r="B210" t="n">
         <v>40.0801</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E210" t="n">
         <v>2006</v>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>228431</v>
+        <v>180489</v>
       </c>
       <c r="B211" t="n">
         <v>40.0801</v>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>7</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>228459</v>
+        <v>181002</v>
       </c>
       <c r="B212" t="n">
         <v>40.0801</v>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>228723</v>
+        <v>181464</v>
       </c>
       <c r="B213" t="n">
         <v>40.0801</v>
       </c>
       <c r="C213" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" t="n">
         <v>7</v>
@@ -4066,16 +4066,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>228769</v>
+        <v>181464</v>
       </c>
       <c r="B214" t="n">
         <v>40.0801</v>
       </c>
       <c r="C214" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D214" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E214" t="n">
         <v>2006</v>
@@ -4083,16 +4083,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>228778</v>
+        <v>182281</v>
       </c>
       <c r="B215" t="n">
         <v>40.0801</v>
       </c>
       <c r="C215" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E215" t="n">
         <v>2006</v>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>228787</v>
+        <v>182290</v>
       </c>
       <c r="B216" t="n">
         <v>40.0801</v>
       </c>
       <c r="C216" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D216" t="n">
         <v>7</v>
@@ -4117,16 +4117,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>228796</v>
+        <v>182290</v>
       </c>
       <c r="B217" t="n">
         <v>40.0801</v>
       </c>
       <c r="C217" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E217" t="n">
         <v>2006</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>229115</v>
+        <v>182670</v>
       </c>
       <c r="B218" t="n">
         <v>40.0801</v>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
         <v>7</v>
@@ -4151,16 +4151,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>230038</v>
+        <v>182670</v>
       </c>
       <c r="B219" t="n">
         <v>40.0801</v>
       </c>
       <c r="C219" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E219" t="n">
         <v>2006</v>
@@ -4168,13 +4168,13 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>230728</v>
+        <v>183044</v>
       </c>
       <c r="B220" t="n">
         <v>40.0801</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D220" t="n">
         <v>7</v>
@@ -4185,16 +4185,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>230764</v>
+        <v>183044</v>
       </c>
       <c r="B221" t="n">
         <v>40.0801</v>
       </c>
       <c r="C221" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D221" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E221" t="n">
         <v>2006</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>231174</v>
+        <v>186131</v>
       </c>
       <c r="B222" t="n">
         <v>40.0801</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
         <v>7</v>
@@ -4219,16 +4219,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>231624</v>
+        <v>186131</v>
       </c>
       <c r="B223" t="n">
         <v>40.0801</v>
       </c>
       <c r="C223" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E223" t="n">
         <v>2006</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>232265</v>
+        <v>186867</v>
       </c>
       <c r="B224" t="n">
         <v>40.0801</v>
@@ -4253,16 +4253,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>232982</v>
+        <v>186867</v>
       </c>
       <c r="B225" t="n">
         <v>40.0801</v>
       </c>
       <c r="C225" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E225" t="n">
         <v>2006</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>233921</v>
+        <v>187967</v>
       </c>
       <c r="B226" t="n">
         <v>40.0801</v>
       </c>
       <c r="C226" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>7</v>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>234030</v>
+        <v>187967</v>
       </c>
       <c r="B227" t="n">
         <v>40.0801</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
         <v>2006</v>
@@ -4304,13 +4304,13 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>234076</v>
+        <v>187985</v>
       </c>
       <c r="B228" t="n">
         <v>40.0801</v>
       </c>
       <c r="C228" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D228" t="n">
         <v>7</v>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>234155</v>
+        <v>187985</v>
       </c>
       <c r="B229" t="n">
         <v>40.0801</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D229" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E229" t="n">
         <v>2006</v>
@@ -4338,13 +4338,13 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>236939</v>
+        <v>188030</v>
       </c>
       <c r="B230" t="n">
         <v>40.0801</v>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D230" t="n">
         <v>7</v>
@@ -4355,16 +4355,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>236948</v>
+        <v>188030</v>
       </c>
       <c r="B231" t="n">
         <v>40.0801</v>
       </c>
       <c r="C231" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D231" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E231" t="n">
         <v>2006</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>238032</v>
+        <v>190044</v>
       </c>
       <c r="B232" t="n">
         <v>40.0801</v>
       </c>
       <c r="C232" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D232" t="n">
         <v>7</v>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>240365</v>
+        <v>190044</v>
       </c>
       <c r="B233" t="n">
         <v>40.0801</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E233" t="n">
         <v>2006</v>
@@ -4406,13 +4406,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>240444</v>
+        <v>190150</v>
       </c>
       <c r="B234" t="n">
         <v>40.0801</v>
       </c>
       <c r="C234" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D234" t="n">
         <v>7</v>
@@ -4423,16 +4423,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>240453</v>
+        <v>190150</v>
       </c>
       <c r="B235" t="n">
         <v>40.0801</v>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D235" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E235" t="n">
         <v>2006</v>
@@ -4440,13 +4440,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>240727</v>
+        <v>190415</v>
       </c>
       <c r="B236" t="n">
         <v>40.0801</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D236" t="n">
         <v>7</v>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>243197</v>
+        <v>190415</v>
       </c>
       <c r="B237" t="n">
         <v>40.0801</v>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E237" t="n">
         <v>2006</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>243221</v>
+        <v>190549</v>
       </c>
       <c r="B238" t="n">
         <v>40.0801</v>
@@ -4491,13 +4491,13 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>243744</v>
+        <v>190567</v>
       </c>
       <c r="B239" t="n">
         <v>40.0801</v>
       </c>
       <c r="C239" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D239" t="n">
         <v>7</v>
@@ -4508,18 +4508,2721 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
+        <v>190576</v>
+      </c>
+      <c r="B240" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>190594</v>
+      </c>
+      <c r="B241" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>193900</v>
+      </c>
+      <c r="B242" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>193900</v>
+      </c>
+      <c r="B243" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C243" t="n">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>194824</v>
+      </c>
+      <c r="B244" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C244" t="n">
+        <v>14</v>
+      </c>
+      <c r="D244" t="n">
+        <v>7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>194824</v>
+      </c>
+      <c r="B245" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C245" t="n">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>195030</v>
+      </c>
+      <c r="B246" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C246" t="n">
+        <v>10</v>
+      </c>
+      <c r="D246" t="n">
+        <v>7</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>195030</v>
+      </c>
+      <c r="B247" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C247" t="n">
+        <v>13</v>
+      </c>
+      <c r="D247" t="n">
+        <v>9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>196060</v>
+      </c>
+      <c r="B248" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>196060</v>
+      </c>
+      <c r="B249" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>9</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>196079</v>
+      </c>
+      <c r="B250" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>196088</v>
+      </c>
+      <c r="B251" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>196088</v>
+      </c>
+      <c r="B252" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C252" t="n">
+        <v>7</v>
+      </c>
+      <c r="D252" t="n">
+        <v>9</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>196097</v>
+      </c>
+      <c r="B253" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C253" t="n">
+        <v>29</v>
+      </c>
+      <c r="D253" t="n">
+        <v>7</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>196097</v>
+      </c>
+      <c r="B254" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>196413</v>
+      </c>
+      <c r="B255" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C255" t="n">
+        <v>8</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>196413</v>
+      </c>
+      <c r="B256" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3</v>
+      </c>
+      <c r="D256" t="n">
+        <v>9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>197869</v>
+      </c>
+      <c r="B257" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C257" t="n">
+        <v>8</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>198419</v>
+      </c>
+      <c r="B258" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>198419</v>
+      </c>
+      <c r="B259" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C259" t="n">
+        <v>12</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>198464</v>
+      </c>
+      <c r="B260" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C260" t="n">
+        <v>8</v>
+      </c>
+      <c r="D260" t="n">
+        <v>7</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>199102</v>
+      </c>
+      <c r="B261" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>199120</v>
+      </c>
+      <c r="B262" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>199120</v>
+      </c>
+      <c r="B263" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7</v>
+      </c>
+      <c r="D263" t="n">
+        <v>9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>199139</v>
+      </c>
+      <c r="B264" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>199193</v>
+      </c>
+      <c r="B265" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>7</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>199193</v>
+      </c>
+      <c r="B266" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>199847</v>
+      </c>
+      <c r="B267" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>199847</v>
+      </c>
+      <c r="B268" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>9</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>200280</v>
+      </c>
+      <c r="B269" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C269" t="n">
+        <v>5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>7</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>200332</v>
+      </c>
+      <c r="B270" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>7</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>200332</v>
+      </c>
+      <c r="B271" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>9</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>200800</v>
+      </c>
+      <c r="B272" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>7</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>201441</v>
+      </c>
+      <c r="B273" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>7</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>201645</v>
+      </c>
+      <c r="B274" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C274" t="n">
+        <v>8</v>
+      </c>
+      <c r="D274" t="n">
+        <v>7</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>201645</v>
+      </c>
+      <c r="B275" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>201885</v>
+      </c>
+      <c r="B276" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>201885</v>
+      </c>
+      <c r="B277" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C277" t="n">
+        <v>5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>9</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>202134</v>
+      </c>
+      <c r="B278" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C278" t="n">
+        <v>5</v>
+      </c>
+      <c r="D278" t="n">
+        <v>7</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>203368</v>
+      </c>
+      <c r="B279" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>203517</v>
+      </c>
+      <c r="B280" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="n">
+        <v>7</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>203517</v>
+      </c>
+      <c r="B281" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>204024</v>
+      </c>
+      <c r="B282" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C282" t="n">
+        <v>12</v>
+      </c>
+      <c r="D282" t="n">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>204796</v>
+      </c>
+      <c r="B283" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C283" t="n">
+        <v>8</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>204796</v>
+      </c>
+      <c r="B284" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C284" t="n">
+        <v>19</v>
+      </c>
+      <c r="D284" t="n">
+        <v>9</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>204857</v>
+      </c>
+      <c r="B285" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C285" t="n">
+        <v>11</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>204857</v>
+      </c>
+      <c r="B286" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C286" t="n">
+        <v>10</v>
+      </c>
+      <c r="D286" t="n">
+        <v>9</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>206084</v>
+      </c>
+      <c r="B287" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>7</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>206084</v>
+      </c>
+      <c r="B288" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>206604</v>
+      </c>
+      <c r="B289" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>7</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>206941</v>
+      </c>
+      <c r="B290" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>206941</v>
+      </c>
+      <c r="B291" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>207388</v>
+      </c>
+      <c r="B292" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C292" t="n">
+        <v>5</v>
+      </c>
+      <c r="D292" t="n">
+        <v>7</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>207388</v>
+      </c>
+      <c r="B293" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4</v>
+      </c>
+      <c r="D293" t="n">
+        <v>9</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>207388</v>
+      </c>
+      <c r="B294" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>7</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>207388</v>
+      </c>
+      <c r="B295" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>9</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>207500</v>
+      </c>
+      <c r="B296" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>207500</v>
+      </c>
+      <c r="B297" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C297" t="n">
+        <v>5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>9</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>207500</v>
+      </c>
+      <c r="B298" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>7</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>207500</v>
+      </c>
+      <c r="B299" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>9</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>209542</v>
+      </c>
+      <c r="B300" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C300" t="n">
+        <v>4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>7</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>209542</v>
+      </c>
+      <c r="B301" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>209551</v>
+      </c>
+      <c r="B302" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11</v>
+      </c>
+      <c r="D302" t="n">
+        <v>7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>209551</v>
+      </c>
+      <c r="B303" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C303" t="n">
+        <v>7</v>
+      </c>
+      <c r="D303" t="n">
+        <v>9</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>209807</v>
+      </c>
+      <c r="B304" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
+      <c r="D304" t="n">
+        <v>7</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>211273</v>
+      </c>
+      <c r="B305" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>211440</v>
+      </c>
+      <c r="B306" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C306" t="n">
+        <v>11</v>
+      </c>
+      <c r="D306" t="n">
+        <v>7</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>211440</v>
+      </c>
+      <c r="B307" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C307" t="n">
+        <v>12</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>213020</v>
+      </c>
+      <c r="B308" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4</v>
+      </c>
+      <c r="D308" t="n">
+        <v>7</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>213543</v>
+      </c>
+      <c r="B309" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C309" t="n">
+        <v>7</v>
+      </c>
+      <c r="D309" t="n">
+        <v>7</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>213543</v>
+      </c>
+      <c r="B310" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C310" t="n">
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>9</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>214777</v>
+      </c>
+      <c r="B311" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C311" t="n">
+        <v>5</v>
+      </c>
+      <c r="D311" t="n">
+        <v>7</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>214777</v>
+      </c>
+      <c r="B312" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C312" t="n">
+        <v>13</v>
+      </c>
+      <c r="D312" t="n">
+        <v>9</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>215062</v>
+      </c>
+      <c r="B313" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" t="n">
+        <v>7</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>215062</v>
+      </c>
+      <c r="B314" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C314" t="n">
+        <v>11</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>215293</v>
+      </c>
+      <c r="B315" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C315" t="n">
+        <v>14</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>215293</v>
+      </c>
+      <c r="B316" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C316" t="n">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>9</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>216038</v>
+      </c>
+      <c r="B317" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C317" t="n">
+        <v>26</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>216038</v>
+      </c>
+      <c r="B318" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>7</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>216339</v>
+      </c>
+      <c r="B319" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2</v>
+      </c>
+      <c r="D319" t="n">
+        <v>7</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>216339</v>
+      </c>
+      <c r="B320" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>9</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>217156</v>
+      </c>
+      <c r="B321" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C321" t="n">
+        <v>15</v>
+      </c>
+      <c r="D321" t="n">
+        <v>7</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>217156</v>
+      </c>
+      <c r="B322" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C322" t="n">
+        <v>17</v>
+      </c>
+      <c r="D322" t="n">
+        <v>9</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>217484</v>
+      </c>
+      <c r="B323" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>7</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>217484</v>
+      </c>
+      <c r="B324" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>9</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>217882</v>
+      </c>
+      <c r="B325" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C325" t="n">
+        <v>15</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>217882</v>
+      </c>
+      <c r="B326" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C326" t="n">
+        <v>5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>9</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>218663</v>
+      </c>
+      <c r="B327" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>7</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>218663</v>
+      </c>
+      <c r="B328" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>9</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>220181</v>
+      </c>
+      <c r="B329" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>220862</v>
+      </c>
+      <c r="B330" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C330" t="n">
+        <v>4</v>
+      </c>
+      <c r="D330" t="n">
+        <v>7</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>221759</v>
+      </c>
+      <c r="B331" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C331" t="n">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>221759</v>
+      </c>
+      <c r="B332" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C332" t="n">
+        <v>10</v>
+      </c>
+      <c r="D332" t="n">
+        <v>9</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>221999</v>
+      </c>
+      <c r="B333" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C333" t="n">
+        <v>5</v>
+      </c>
+      <c r="D333" t="n">
+        <v>7</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>221999</v>
+      </c>
+      <c r="B334" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4</v>
+      </c>
+      <c r="D334" t="n">
+        <v>9</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>221999</v>
+      </c>
+      <c r="B335" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>7</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>221999</v>
+      </c>
+      <c r="B336" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>9</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>223232</v>
+      </c>
+      <c r="B337" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C337" t="n">
+        <v>5</v>
+      </c>
+      <c r="D337" t="n">
+        <v>7</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>223232</v>
+      </c>
+      <c r="B338" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3</v>
+      </c>
+      <c r="D338" t="n">
+        <v>9</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>224554</v>
+      </c>
+      <c r="B339" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2</v>
+      </c>
+      <c r="D339" t="n">
+        <v>7</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>225414</v>
+      </c>
+      <c r="B340" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C340" t="n">
+        <v>8</v>
+      </c>
+      <c r="D340" t="n">
+        <v>7</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>225511</v>
+      </c>
+      <c r="B341" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C341" t="n">
+        <v>15</v>
+      </c>
+      <c r="D341" t="n">
+        <v>7</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>225511</v>
+      </c>
+      <c r="B342" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C342" t="n">
+        <v>15</v>
+      </c>
+      <c r="D342" t="n">
+        <v>9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>227216</v>
+      </c>
+      <c r="B343" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4</v>
+      </c>
+      <c r="D343" t="n">
+        <v>7</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>227216</v>
+      </c>
+      <c r="B344" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C344" t="n">
+        <v>5</v>
+      </c>
+      <c r="D344" t="n">
+        <v>9</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>227377</v>
+      </c>
+      <c r="B345" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3</v>
+      </c>
+      <c r="D345" t="n">
+        <v>7</v>
+      </c>
+      <c r="E345" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>227757</v>
+      </c>
+      <c r="B346" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C346" t="n">
+        <v>17</v>
+      </c>
+      <c r="D346" t="n">
+        <v>7</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>227757</v>
+      </c>
+      <c r="B347" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C347" t="n">
+        <v>4</v>
+      </c>
+      <c r="D347" t="n">
+        <v>9</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>227881</v>
+      </c>
+      <c r="B348" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>7</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>228246</v>
+      </c>
+      <c r="B349" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" t="n">
+        <v>7</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>228246</v>
+      </c>
+      <c r="B350" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>9</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>228431</v>
+      </c>
+      <c r="B351" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C351" t="n">
+        <v>4</v>
+      </c>
+      <c r="D351" t="n">
+        <v>7</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>228459</v>
+      </c>
+      <c r="B352" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C352" t="n">
+        <v>3</v>
+      </c>
+      <c r="D352" t="n">
+        <v>7</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>228723</v>
+      </c>
+      <c r="B353" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C353" t="n">
+        <v>14</v>
+      </c>
+      <c r="D353" t="n">
+        <v>7</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>228723</v>
+      </c>
+      <c r="B354" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C354" t="n">
+        <v>15</v>
+      </c>
+      <c r="D354" t="n">
+        <v>9</v>
+      </c>
+      <c r="E354" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>228769</v>
+      </c>
+      <c r="B355" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C355" t="n">
+        <v>9</v>
+      </c>
+      <c r="D355" t="n">
+        <v>7</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>228778</v>
+      </c>
+      <c r="B356" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C356" t="n">
+        <v>13</v>
+      </c>
+      <c r="D356" t="n">
+        <v>7</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>228778</v>
+      </c>
+      <c r="B357" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C357" t="n">
+        <v>21</v>
+      </c>
+      <c r="D357" t="n">
+        <v>9</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>228787</v>
+      </c>
+      <c r="B358" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C358" t="n">
+        <v>9</v>
+      </c>
+      <c r="D358" t="n">
+        <v>7</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>228787</v>
+      </c>
+      <c r="B359" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C359" t="n">
+        <v>9</v>
+      </c>
+      <c r="D359" t="n">
+        <v>9</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>228796</v>
+      </c>
+      <c r="B360" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C360" t="n">
+        <v>13</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>229115</v>
+      </c>
+      <c r="B361" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C361" t="n">
+        <v>5</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>229115</v>
+      </c>
+      <c r="B362" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>9</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>230038</v>
+      </c>
+      <c r="B363" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C363" t="n">
+        <v>7</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>230728</v>
+      </c>
+      <c r="B364" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>7</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>230728</v>
+      </c>
+      <c r="B365" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>9</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>230764</v>
+      </c>
+      <c r="B366" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C366" t="n">
+        <v>22</v>
+      </c>
+      <c r="D366" t="n">
+        <v>7</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>230764</v>
+      </c>
+      <c r="B367" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C367" t="n">
+        <v>5</v>
+      </c>
+      <c r="D367" t="n">
+        <v>9</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>231174</v>
+      </c>
+      <c r="B368" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>7</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>231624</v>
+      </c>
+      <c r="B369" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C369" t="n">
+        <v>11</v>
+      </c>
+      <c r="D369" t="n">
+        <v>7</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>231624</v>
+      </c>
+      <c r="B370" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C370" t="n">
+        <v>9</v>
+      </c>
+      <c r="D370" t="n">
+        <v>9</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>232265</v>
+      </c>
+      <c r="B371" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>7</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>232265</v>
+      </c>
+      <c r="B372" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>9</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>232982</v>
+      </c>
+      <c r="B373" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C373" t="n">
+        <v>10</v>
+      </c>
+      <c r="D373" t="n">
+        <v>7</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>232982</v>
+      </c>
+      <c r="B374" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C374" t="n">
+        <v>3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>9</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>233921</v>
+      </c>
+      <c r="B375" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C375" t="n">
+        <v>7</v>
+      </c>
+      <c r="D375" t="n">
+        <v>7</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>233921</v>
+      </c>
+      <c r="B376" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>9</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>234030</v>
+      </c>
+      <c r="B377" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="n">
+        <v>7</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>234076</v>
+      </c>
+      <c r="B378" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C378" t="n">
+        <v>14</v>
+      </c>
+      <c r="D378" t="n">
+        <v>7</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>234076</v>
+      </c>
+      <c r="B379" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C379" t="n">
+        <v>8</v>
+      </c>
+      <c r="D379" t="n">
+        <v>9</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>234155</v>
+      </c>
+      <c r="B380" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>7</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>236939</v>
+      </c>
+      <c r="B381" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C381" t="n">
+        <v>3</v>
+      </c>
+      <c r="D381" t="n">
+        <v>7</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>236939</v>
+      </c>
+      <c r="B382" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>9</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>236948</v>
+      </c>
+      <c r="B383" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C383" t="n">
+        <v>29</v>
+      </c>
+      <c r="D383" t="n">
+        <v>7</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>236948</v>
+      </c>
+      <c r="B384" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C384" t="n">
+        <v>26</v>
+      </c>
+      <c r="D384" t="n">
+        <v>9</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>238032</v>
+      </c>
+      <c r="B385" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C385" t="n">
+        <v>7</v>
+      </c>
+      <c r="D385" t="n">
+        <v>7</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>238032</v>
+      </c>
+      <c r="B386" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C386" t="n">
+        <v>5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>9</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>240365</v>
+      </c>
+      <c r="B387" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>7</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>240444</v>
+      </c>
+      <c r="B388" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C388" t="n">
+        <v>12</v>
+      </c>
+      <c r="D388" t="n">
+        <v>7</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>240444</v>
+      </c>
+      <c r="B389" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C389" t="n">
+        <v>25</v>
+      </c>
+      <c r="D389" t="n">
+        <v>9</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>240453</v>
+      </c>
+      <c r="B390" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+      <c r="D390" t="n">
+        <v>7</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>240453</v>
+      </c>
+      <c r="B391" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C391" t="n">
+        <v>4</v>
+      </c>
+      <c r="D391" t="n">
+        <v>9</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>240727</v>
+      </c>
+      <c r="B392" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D392" t="n">
+        <v>7</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>240727</v>
+      </c>
+      <c r="B393" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>9</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>243197</v>
+      </c>
+      <c r="B394" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C394" t="n">
+        <v>5</v>
+      </c>
+      <c r="D394" t="n">
+        <v>7</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>243221</v>
+      </c>
+      <c r="B395" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2</v>
+      </c>
+      <c r="D395" t="n">
+        <v>7</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>243744</v>
+      </c>
+      <c r="B396" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C396" t="n">
+        <v>13</v>
+      </c>
+      <c r="D396" t="n">
+        <v>7</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>243744</v>
+      </c>
+      <c r="B397" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C397" t="n">
+        <v>24</v>
+      </c>
+      <c r="D397" t="n">
+        <v>9</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
         <v>243780</v>
       </c>
-      <c r="B240" t="n">
-        <v>40.0801</v>
-      </c>
-      <c r="C240" t="n">
+      <c r="B398" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C398" t="n">
         <v>18</v>
       </c>
-      <c r="D240" t="n">
-        <v>7</v>
-      </c>
-      <c r="E240" t="n">
+      <c r="D398" t="n">
+        <v>7</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>243780</v>
+      </c>
+      <c r="B399" t="n">
+        <v>40.0801</v>
+      </c>
+      <c r="C399" t="n">
+        <v>12</v>
+      </c>
+      <c r="D399" t="n">
+        <v>9</v>
+      </c>
+      <c r="E399" t="n">
         <v>2006</v>
       </c>
     </row>
